--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="27660" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>费用发生日期</t>
   </si>
@@ -34,9 +34,15 @@
     <t>备注3</t>
   </si>
   <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
     <t>出差补贴</t>
   </si>
   <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
     <t>交通费(市内)</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>终点(必填)</t>
   </si>
   <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
     <t>团队激励</t>
   </si>
   <si>
@@ -58,21 +67,36 @@
     <t>人员(必填)</t>
   </si>
   <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
     <t>活动费</t>
   </si>
   <si>
     <t>明细(必填)</t>
   </si>
   <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
     <t>办公费</t>
   </si>
   <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
     <t>招聘费</t>
   </si>
   <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
     <t>通讯费</t>
   </si>
   <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
     <t>销售费用</t>
   </si>
   <si>
@@ -82,18 +106,27 @@
     <t>事项(必填)</t>
   </si>
   <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
     <t>充值费用</t>
   </si>
   <si>
     <t>充值内容(必填)</t>
   </si>
   <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
     <t>交通费(市外)</t>
   </si>
   <si>
     <t>车次/航班(必填)</t>
   </si>
   <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
     <t>住宿费</t>
   </si>
   <si>
@@ -104,6 +137,9 @@
   </si>
   <si>
     <t>城市、酒店(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
   </si>
   <si>
     <t>返回日期(必填)</t>
@@ -116,15 +152,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,9 +182,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -159,8 +210,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,20 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -195,16 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +281,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -225,81 +311,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,181 +334,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,32 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,32 +541,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -595,11 +570,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,156 +630,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -772,9 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,63 +803,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1107,15 +1123,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
@@ -1125,239 +1141,233 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>43841</v>
+      <c r="A2" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>43800</v>
+      <c r="A3" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>1500</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>43510</v>
+      <c r="A4" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10">
-        <v>43511</v>
+      <c r="A5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
-        <v>43512</v>
+      <c r="A6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
-        <v>43513</v>
+      <c r="A7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>456</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10">
-        <v>43514</v>
+      <c r="A8" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
-        <v>43515</v>
+      <c r="A9" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10">
-        <v>43516</v>
+      <c r="A10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3">
         <v>456</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10">
-        <v>43517</v>
+      <c r="A11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3">
         <v>456</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10">
-        <v>43518</v>
+      <c r="A12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>456</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10">
-        <v>43519</v>
+      <c r="A13" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>999</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="11"/>
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A2:F49" name="区域1"/>
+    <protectedRange sqref="A2:F13 B14:F14 A15:F49" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="A14" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <dataValidations count="3">
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A49">
-      <formula1>36526</formula1>
-      <formula2>47848</formula2>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"餐补费,交通费(市内),团队激励,活动费,办公费,招聘费,通讯费,销售费用,充值费用,交通费(市外),住宿费,出差补贴"</formula1>
     </dataValidation>

--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13120"/>
+    <workbookView windowWidth="27945" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="报销填写" sheetId="2" r:id="rId1"/>
+    <sheet name="模版示例" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>费用发生日期</t>
   </si>
@@ -154,10 +155,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,6 +183,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,6 +246,38 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,15 +290,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,98 +313,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,19 +335,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,37 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,121 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,20 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +564,39 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,187 +626,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,60 +804,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1123,15 +1136,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.55" customWidth="1"/>
+    <col min="3" max="3" width="17.7083333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.7833333333333" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.3833333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.5333333333333" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="15" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
@@ -1141,7 +1199,7 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1220,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1173,7 +1231,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1190,7 +1248,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1210,7 +1268,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1227,7 +1285,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1241,7 +1299,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1258,7 +1316,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1272,7 +1330,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1289,7 +1347,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1303,7 +1361,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1323,7 +1381,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1343,7 +1401,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1364,8 +1422,8 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A2:F13 B14:F14 A15:F49" name="区域1" securityDescriptor=""/>
-    <protectedRange sqref="A14" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="A2:F13 B14:F14 A15:F49" name="区域1"/>
+    <protectedRange sqref="A14" name="区域1_1"/>
   </protectedRanges>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">

--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13140"/>
+    <workbookView windowWidth="32720" windowHeight="17000"/>
   </bookViews>
   <sheets>
-    <sheet name="报销填写" sheetId="2" r:id="rId1"/>
-    <sheet name="模版示例" sheetId="1" r:id="rId2"/>
+    <sheet name="报销填写" sheetId="1" r:id="rId1"/>
+    <sheet name="模版示例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>费用发生日期</t>
   </si>
@@ -153,12 +153,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -169,13 +170,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -183,15 +184,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,79 +282,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,30 +306,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +336,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,50 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +563,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,6 +587,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -626,161 +612,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -792,7 +793,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -804,72 +805,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1136,306 +1146,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.8333333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.55" customWidth="1"/>
-    <col min="3" max="3" width="17.7083333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.7833333333333" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.3833333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.5333333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.1428571428571" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.7678571428571" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.5803571428571" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.9821428571429" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.2321428571429" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A2:F13" name="区域1" securityDescriptor=""/>
+  </protectedRanges>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"餐补费,交通费(市内),团队激励,活动费,办公费,招聘费,通讯费,销售费,充值费用,交通费(市外),住宿费,出差补贴"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22" style="4" customWidth="1"/>
-    <col min="5" max="6" width="18.625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="5"/>
+    <col min="1" max="1" width="14.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.9285714285714" customWidth="1"/>
+    <col min="4" max="4" width="17.5535714285714" customWidth="1"/>
+    <col min="5" max="5" width="15.7678571428571" customWidth="1"/>
+    <col min="6" max="6" width="18.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>25</v>
       </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>1500</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>456</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>78</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>456</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>456</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>456</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="1" customFormat="1" ht="29" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>999</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A2:F13 B14:F14 A15:F49" name="区域1"/>
-    <protectedRange sqref="A14" name="区域1_1"/>
+    <protectedRange sqref="A2:F13" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
       <formula1>"餐补费,交通费(市内),团队激励,活动费,办公费,招聘费,通讯费,销售费用,充值费用,交通费(市外),住宿费,出差补贴"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C49">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
       <formula1>0.01</formula1>
       <formula2>999999.99</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32720" windowHeight="17000"/>
+    <workbookView windowWidth="32720" windowHeight="17000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报销填写" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>费用发生日期</t>
   </si>
@@ -38,6 +38,9 @@
     <t>2020-10-10</t>
   </si>
   <si>
+    <t>餐补费</t>
+  </si>
+  <si>
     <t>出差补贴</t>
   </si>
   <si>
@@ -147,6 +150,44 @@
   </si>
   <si>
     <t>城市(必填)</t>
+  </si>
+  <si>
+    <r>
+      <t>报销填写备注</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF98764"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.在【报销填写】sheet栏，填写报销。
+2.请不要擅自更改模版单元格格式，避免因格式错误无法成功导入系统。
+3.报销填写时，请按时间顺序提交每天的明细，不可合并填写报销。
+4.加班到次日的费用，报销系统填写的时间为加班当天的时间。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -154,14 +195,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,13 +224,49 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFF98764"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -199,7 +276,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,121 +374,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF98764"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,187 +403,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE9E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,8 +606,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,20 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,172 +700,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -799,19 +872,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -820,7 +920,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -882,6 +982,14 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FCCFD3"/>
+      <color rgb="00FFBAB5"/>
+      <color rgb="00F98764"/>
+      <color rgb="00FFE9E2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1150,37 +1258,37 @@
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.1428571428571" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.7678571428571" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.5803571428571" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.9821428571429" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.2321428571429" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.1428571428571" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.7678571428571" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.5803571428571" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.9821428571429" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20.2321428571429" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1201,10 +1309,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1245,221 +1353,297 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="29" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
         <v>1500</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
         <v>23</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7">
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7">
         <v>456</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7">
         <v>78</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7">
-        <v>456</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="7">
         <v>456</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>456</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="C13" s="7">
+        <v>456</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="29" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
         <v>999</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="F14" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="17"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A2:F13" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="A3:F14" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="A2:F2" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
+  <mergeCells count="1">
+    <mergeCell ref="A17:F23"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B14">
       <formula1>"餐补费,交通费(市内),团队激励,活动费,办公费,招聘费,通讯费,销售费用,充值费用,交通费(市外),住宿费,出差补贴"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C14">
       <formula1>0.01</formula1>
       <formula2>999999.99</formula2>
     </dataValidation>

--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -35,115 +35,115 @@
     <t>备注3</t>
   </si>
   <si>
+    <t>餐补费</t>
+  </si>
+  <si>
     <t>2020-10-10</t>
   </si>
   <si>
-    <t>餐补费</t>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>交通费(市内)</t>
+  </si>
+  <si>
+    <t>起点(必填)</t>
+  </si>
+  <si>
+    <t>终点(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>团队激励</t>
+  </si>
+  <si>
+    <t>月份(必填)</t>
+  </si>
+  <si>
+    <t>预算(必填)</t>
+  </si>
+  <si>
+    <t>人员(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>活动费</t>
+  </si>
+  <si>
+    <t>明细(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>办公费</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>招聘费</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>通讯费</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>销售费用</t>
+  </si>
+  <si>
+    <t>季度(必填)</t>
+  </si>
+  <si>
+    <t>事项(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>充值费用</t>
+  </si>
+  <si>
+    <t>充值内容(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>交通费(市外)</t>
+  </si>
+  <si>
+    <t>车次/航班(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>住宿费</t>
+  </si>
+  <si>
+    <t>起租日(必填)</t>
+  </si>
+  <si>
+    <t>退租日(必填)</t>
+  </si>
+  <si>
+    <t>城市、酒店(必填)</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
   </si>
   <si>
     <t>出差补贴</t>
-  </si>
-  <si>
-    <t>2020-10-11</t>
-  </si>
-  <si>
-    <t>交通费(市内)</t>
-  </si>
-  <si>
-    <t>起点(必填)</t>
-  </si>
-  <si>
-    <t>终点(必填)</t>
-  </si>
-  <si>
-    <t>2020-10-12</t>
-  </si>
-  <si>
-    <t>团队激励</t>
-  </si>
-  <si>
-    <t>月份(必填)</t>
-  </si>
-  <si>
-    <t>预算(必填)</t>
-  </si>
-  <si>
-    <t>人员(必填)</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>活动费</t>
-  </si>
-  <si>
-    <t>明细(必填)</t>
-  </si>
-  <si>
-    <t>2020-10-14</t>
-  </si>
-  <si>
-    <t>办公费</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>招聘费</t>
-  </si>
-  <si>
-    <t>2020-10-16</t>
-  </si>
-  <si>
-    <t>通讯费</t>
-  </si>
-  <si>
-    <t>2020-10-17</t>
-  </si>
-  <si>
-    <t>销售费用</t>
-  </si>
-  <si>
-    <t>季度(必填)</t>
-  </si>
-  <si>
-    <t>事项(必填)</t>
-  </si>
-  <si>
-    <t>2020-10-18</t>
-  </si>
-  <si>
-    <t>充值费用</t>
-  </si>
-  <si>
-    <t>充值内容(必填)</t>
-  </si>
-  <si>
-    <t>2020-10-19</t>
-  </si>
-  <si>
-    <t>交通费(市外)</t>
-  </si>
-  <si>
-    <t>车次/航班(必填)</t>
-  </si>
-  <si>
-    <t>2020-10-20</t>
-  </si>
-  <si>
-    <t>住宿费</t>
-  </si>
-  <si>
-    <t>起租日(必填)</t>
-  </si>
-  <si>
-    <t>退租日(必填)</t>
-  </si>
-  <si>
-    <t>城市、酒店(必填)</t>
-  </si>
-  <si>
-    <t>2020-10-21</t>
   </si>
   <si>
     <t>返回日期(必填)</t>
@@ -183,10 +183,30 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>1.在【报销填写】sheet栏，填写报销。
-2.请不要擅自更改模版单元格格式，避免因格式错误无法成功导入系统。
+      <t>1.请在【报销填写】sheet栏，填写报销并上传。
+2.不要擅自更改单元格格式，避免因格式错误无法成功导入系统。
 3.报销填写时，请按时间顺序提交每天的明细，不可合并填写报销。
-4.加班到次日的费用，报销系统填写的时间为加班当天的时间。</t>
+4.加班到次日的费用，报销系统填写的时间为加班当天的时间。
+5.每月</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF98764"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF98764"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号前，请务必提交上月的报销单，逾期将无法提交。</t>
     </r>
   </si>
 </sst>
@@ -197,12 +217,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,46 +259,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,8 +281,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +341,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -313,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,46 +380,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,9 +394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +413,13 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFF98764"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -409,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,11 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +663,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,17 +702,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,168 +727,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,27 +906,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,40 +1262,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.1428571428571" style="18" customWidth="1"/>
-    <col min="2" max="2" width="15.7678571428571" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.5803571428571" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.9821428571429" style="22" customWidth="1"/>
-    <col min="6" max="6" width="20.2321428571429" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.1428571428571" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.7678571428571" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.5803571428571" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.9821428571429" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.2321428571429" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11">
+        <v>44217</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1309,10 +1326,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1347,10 +1364,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="7">
         <v>40</v>
@@ -1361,289 +1378,275 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+        <v>1500</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
-        <v>1500</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7">
         <v>456</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>456</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7">
+        <v>999</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7">
-        <v>456</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
-        <v>999</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="17"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A3:F14" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="A3:F13" name="区域1" securityDescriptor=""/>
     <protectedRange sqref="A2:F2" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A17:F23"/>
+    <mergeCell ref="A16:F22"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B13">
       <formula1>"餐补费,交通费(市内),团队激励,活动费,办公费,招聘费,通讯费,销售费用,充值费用,交通费(市外),住宿费,出差补贴"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C14">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C13">
       <formula1>0.01</formula1>
       <formula2>999999.99</formula2>
     </dataValidation>
